--- a/daily_track/20221213/20221213_conclusion.xlsx
+++ b/daily_track/20221213/20221213_conclusion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="27660" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="20221213_conclusion" sheetId="1" r:id="rId1"/>
@@ -1220,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
@@ -3404,7 +3404,7 @@
         <v>45</v>
       </c>
       <c r="P47" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:16">
@@ -3454,7 +3454,7 @@
         <v>45</v>
       </c>
       <c r="P48" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:16">
@@ -3504,7 +3504,7 @@
         <v>45</v>
       </c>
       <c r="P49" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -5302,7 +5302,7 @@
         <v>45</v>
       </c>
       <c r="P98" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:16">
@@ -5352,7 +5352,7 @@
         <v>45</v>
       </c>
       <c r="P99" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:16">
@@ -5402,7 +5402,7 @@
         <v>45</v>
       </c>
       <c r="P100" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
